--- a/resources/xlsx/Ganancias_por_Autor.xlsx
+++ b/resources/xlsx/Ganancias_por_Autor.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ganancia</t>
+          <t>Ganancias</t>
         </is>
       </c>
     </row>
